--- a/testData/Write.xlsx
+++ b/testData/Write.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="110">
   <si>
     <t>Meta Front-End Developer</t>
   </si>
@@ -222,6 +222,150 @@
   </si>
   <si>
     <t>Mixed (124)</t>
+  </si>
+  <si>
+    <t>Spanish (1,101)</t>
+  </si>
+  <si>
+    <t>Arabic (1,012)</t>
+  </si>
+  <si>
+    <t>French (997)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (993)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (988)</t>
+  </si>
+  <si>
+    <t>German (977)</t>
+  </si>
+  <si>
+    <t>Indonesian (976)</t>
+  </si>
+  <si>
+    <t>Hindi (972)</t>
+  </si>
+  <si>
+    <t>Italian (971)</t>
+  </si>
+  <si>
+    <t>Swedish (970)</t>
+  </si>
+  <si>
+    <t>Dutch (969)</t>
+  </si>
+  <si>
+    <t>Greek (969)</t>
+  </si>
+  <si>
+    <t>Polish (969)</t>
+  </si>
+  <si>
+    <t>Thai (969)</t>
+  </si>
+  <si>
+    <t>Turkish (969)</t>
+  </si>
+  <si>
+    <t>Ukrainian (969)</t>
+  </si>
+  <si>
+    <t>Russian (946)</t>
+  </si>
+  <si>
+    <t>Kazakh (894)</t>
+  </si>
+  <si>
+    <t>Mixed (126)</t>
+  </si>
+  <si>
+    <t>English (1,647)</t>
+  </si>
+  <si>
+    <t>Intermediate (694)</t>
+  </si>
+  <si>
+    <t>Approx. 10 hours to complete</t>
+  </si>
+  <si>
+    <t>Intermediate (695)</t>
+  </si>
+  <si>
+    <t>10 hours to complete</t>
+  </si>
+  <si>
+    <t>English (1,651)</t>
+  </si>
+  <si>
+    <t>Beginner (742)</t>
+  </si>
+  <si>
+    <t>English (1,649)</t>
+  </si>
+  <si>
+    <t>Japanese (979)</t>
+  </si>
+  <si>
+    <t>Korean (977)</t>
+  </si>
+  <si>
+    <t>Beginner (741)</t>
+  </si>
+  <si>
+    <t>Intermediate (697)</t>
+  </si>
+  <si>
+    <t>English (1,661)</t>
+  </si>
+  <si>
+    <t>Beginner (749)</t>
+  </si>
+  <si>
+    <t>Intermediate (699)</t>
+  </si>
+  <si>
+    <t>English (1,662)</t>
+  </si>
+  <si>
+    <t>Japanese (980)</t>
+  </si>
+  <si>
+    <t>Korean (978)</t>
+  </si>
+  <si>
+    <t>English (409)</t>
+  </si>
+  <si>
+    <t>Arabic (234)</t>
+  </si>
+  <si>
+    <t>Spanish (229)</t>
+  </si>
+  <si>
+    <t>French (225)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (212)</t>
+  </si>
+  <si>
+    <t>Beginner (896)</t>
+  </si>
+  <si>
+    <t>Intermediate (788)</t>
+  </si>
+  <si>
+    <t>Advanced (80)</t>
+  </si>
+  <si>
+    <t>Mixed (147)</t>
+  </si>
+  <si>
+    <t>English (1,664)</t>
+  </si>
+  <si>
+    <t>Intermediate (701)</t>
   </si>
 </sst>
 </file>
@@ -594,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -608,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -619,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>31</v>
@@ -630,100 +774,100 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" t="s" s="0">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C6" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C7" t="s" s="0">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C8" t="s" s="0">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C9" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s" s="0">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" t="s" s="0">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C13" t="s" s="0">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s" s="0">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C15" t="s" s="0">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s" s="0">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" t="s" s="0">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C19" t="s" s="0">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" t="s" s="0">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s" s="0">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s" s="0">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.35">
